--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/EstimateMethodGuessingSimulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F706FD-C90B-5C45-8C1E-FC6EEC754F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD2D948-1842-EB43-BAF2-85BEBA492027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480"/>
+    <workbookView xWindow="5760" yWindow="2180" windowWidth="25440" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Q</t>
   </si>
@@ -69,11 +80,14 @@
   <si>
     <t>R_Zero</t>
   </si>
+  <si>
+    <t>p-hat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -556,10 +570,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -916,19 +931,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,13 +987,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1021,16 +1039,19 @@
       <c r="N2" s="1">
         <v>0.76190476190476097</v>
       </c>
-      <c r="O2" s="2">
-        <f>(E2+B2+C2-1)/(2*B2+(E2+C2-1)*(1/4+1))</f>
-        <v>-0.86956521739130954</v>
+      <c r="O2" s="3">
+        <v>0.2</v>
       </c>
       <c r="P2" s="2">
+        <f>(E2+B2+C2-1)/(2*B2+(E2+C2-1)*(O2+1))</f>
+        <v>-0.73529411764706321</v>
+      </c>
+      <c r="Q2" s="2">
         <f>(B2+C2-1)/(2*B2+C2-E2-1)</f>
         <v>-0.45454545454545658</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1073,16 +1094,19 @@
       <c r="N3" s="1">
         <v>0.61904761904761896</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O31" si="0">(E3+B3+C3-1)/(2*B3+(E3+C3-1)*(1/4+1))</f>
-        <v>-4.0000000000000071</v>
+      <c r="O3" s="3">
+        <v>0.2</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P31" si="1">(B3+C3-1)/(2*B3+C3-E3-1)</f>
+        <f t="shared" ref="P3:P31" si="0">(E3+B3+C3-1)/(2*B3+(E3+C3-1)*(O3+1))</f>
+        <v>-2.5000000000000062</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q31" si="1">(B3+C3-1)/(2*B3+C3-E3-1)</f>
         <v>-1.6000000000000014</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1125,16 +1149,19 @@
       <c r="N4" s="1">
         <v>0.94736842105263097</v>
       </c>
-      <c r="O4" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.1632653061226246E-2</v>
+      <c r="O4" s="3">
+        <v>0.2</v>
       </c>
       <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.5757575757577383E-2</v>
+      </c>
+      <c r="Q4" s="2">
         <f t="shared" si="1"/>
         <v>-5.8823529411765926E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1177,16 +1204,19 @@
       <c r="N5" s="1">
         <v>0.91666666666666596</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.986065632940565E-15</v>
+      <c r="O5" s="3">
+        <v>0.2</v>
       </c>
       <c r="P5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.8619365308817791E-15</v>
+      </c>
+      <c r="Q5" s="2">
         <f t="shared" si="1"/>
         <v>-0.10000000000000205</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1229,16 +1259,19 @@
       <c r="N6" s="1">
         <v>0.47368421052631499</v>
       </c>
-      <c r="O6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3999999999999879</v>
+      <c r="O6" s="3">
+        <v>0.2</v>
       </c>
       <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2142857142856931</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" si="1"/>
         <v>9.9999999999997957</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1281,16 +1314,19 @@
       <c r="N7" s="1">
         <v>0.625</v>
       </c>
-      <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.5000000000000409</v>
+      <c r="O7" s="3">
+        <v>0.2</v>
       </c>
       <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7857142857143078</v>
+      </c>
+      <c r="Q7" s="2">
         <f t="shared" si="1"/>
         <v>-1.5000000000000129</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1333,16 +1369,19 @@
       <c r="N8" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999942</v>
+      <c r="O8" s="3">
+        <v>0.2</v>
       </c>
       <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.499999999999992</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="1"/>
         <v>2.0000000000000049</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1385,16 +1424,19 @@
       <c r="N9" s="1">
         <v>0.89999999999999902</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="0"/>
-        <v>-7.6923076923077316E-2</v>
+      <c r="O9" s="3">
+        <v>0.2</v>
       </c>
       <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.1428571428571772E-2</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="1"/>
         <v>-0.12500000000000028</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1437,16 +1479,19 @@
       <c r="N10" s="1">
         <v>0.625</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000129</v>
+      <c r="O10" s="3">
+        <v>0.2</v>
       </c>
       <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.83333333333334225</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="1"/>
         <v>-1.5000000000000167</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1489,16 +1534,19 @@
       <c r="N11" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.428571428571465</v>
+      <c r="O11" s="3">
+        <v>0.2</v>
       </c>
       <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1363636363636607</v>
+      </c>
+      <c r="Q11" s="2">
         <f t="shared" si="1"/>
         <v>-1.0000000000000158</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1541,16 +1589,19 @@
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.2697892947892182E-15</v>
+      <c r="O12" s="3">
+        <v>0.2</v>
       </c>
       <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.127927463864891E-15</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="1"/>
         <v>-1.7023419710919115E-15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1593,16 +1644,19 @@
       <c r="N13" s="1">
         <v>0.79999999999999905</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.27586206896552373</v>
+      <c r="O13" s="3">
+        <v>0.2</v>
       </c>
       <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25000000000000566</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="1"/>
         <v>-0.33333333333333853</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1645,16 +1699,19 @@
       <c r="N14" s="1">
         <v>0.94444444444444398</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.6956521739132417E-2</v>
+      <c r="O14" s="3">
+        <v>0.2</v>
       </c>
       <c r="P14" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.064516129032441E-2</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="1"/>
         <v>-6.2500000000001374E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1697,16 +1754,19 @@
       <c r="N15" s="1">
         <v>0.94117647058823495</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.3023255813955333E-2</v>
+      <c r="O15" s="3">
+        <v>0.2</v>
       </c>
       <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.6206896551725837E-2</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="1"/>
         <v>-6.6666666666667929E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1749,16 +1809,19 @@
       <c r="N16" s="1">
         <v>0.35714285714285698</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.6000000000000325</v>
+      <c r="O16" s="3">
+        <v>0.2</v>
       </c>
       <c r="P16" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.2500000000000211</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="1"/>
         <v>2.2499999999999933</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1801,16 +1864,19 @@
       <c r="N17" s="1">
         <v>0.999999999999999</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.107025913275758E-15</v>
+      <c r="O17" s="3">
+        <v>0.2</v>
       </c>
       <c r="P17" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.7878367936960199E-15</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="1"/>
         <v>-3.830269434956809E-15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1853,16 +1919,19 @@
       <c r="N18" s="1">
         <v>0.79999999999999905</v>
       </c>
-      <c r="O18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.18181818181818502</v>
+      <c r="O18" s="3">
+        <v>0.2</v>
       </c>
       <c r="P18" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.16666666666666952</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="1"/>
         <v>-0.33333333333333615</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1905,16 +1974,19 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.5321077739827526E-14</v>
+      <c r="O19" s="3">
+        <v>0.2</v>
       </c>
       <c r="P19" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.4363510381088278E-14</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1957,16 +2029,19 @@
       <c r="N20" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.4000000000000043</v>
+      <c r="O20" s="3">
+        <v>0.2</v>
       </c>
       <c r="P20" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.3571428571428607</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="1"/>
         <v>-0.25000000000000222</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2009,16 +2084,19 @@
       <c r="N21" s="1">
         <v>0.85714285714285698</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.30769230769231548</v>
+      <c r="O21" s="3">
+        <v>0.2</v>
       </c>
       <c r="P21" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.27777777777778456</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="1"/>
         <v>-0.2000000000000044</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2061,16 +2139,19 @@
       <c r="N22" s="1">
         <v>0.875</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.25000000000000622</v>
+      <c r="O22" s="3">
+        <v>0.2</v>
       </c>
       <c r="P22" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.22727272727273276</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="1"/>
         <v>-0.16666666666667035</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2113,16 +2194,19 @@
       <c r="N23" s="1">
         <v>0.84615384615384603</v>
       </c>
-      <c r="O23" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.12903225806451846</v>
+      <c r="O23" s="3">
+        <v>0.2</v>
       </c>
       <c r="P23" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.11904761904762119</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="1"/>
         <v>-0.22222222222222443</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2165,16 +2249,19 @@
       <c r="N24" s="1">
         <v>0.25</v>
       </c>
-      <c r="O24" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.25000000000000622</v>
+      <c r="O24" s="3">
+        <v>0.2</v>
       </c>
       <c r="P24" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.22727272727273276</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="1"/>
         <v>1.4999999999999956</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2217,16 +2304,19 @@
       <c r="N25" s="1">
         <v>0.27272727272727199</v>
       </c>
-      <c r="O25" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.3333333333333761</v>
+      <c r="O25" s="3">
+        <v>0.2</v>
       </c>
       <c r="P25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0714285714286014</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" si="1"/>
         <v>1.5999999999999925</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2269,16 +2359,19 @@
       <c r="N26" s="1">
         <v>0.76923076923076905</v>
       </c>
-      <c r="O26" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.34782608695652434</v>
+      <c r="O26" s="3">
+        <v>0.2</v>
       </c>
       <c r="P26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.31250000000000233</v>
+      </c>
+      <c r="Q26" s="2">
         <f t="shared" si="1"/>
         <v>-0.42857142857143066</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2321,16 +2414,19 @@
       <c r="N27" s="1">
         <v>0.999999999999999</v>
       </c>
-      <c r="O27" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.3570888830503429E-15</v>
+      <c r="O27" s="3">
+        <v>0.2</v>
       </c>
       <c r="P27" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.2097708278596956E-15</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="1"/>
         <v>-1.7678166622877552E-15</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2373,16 +2469,19 @@
       <c r="N28" s="1">
         <v>0.72727272727272696</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.47058823529412075</v>
+      <c r="O28" s="3">
+        <v>0.2</v>
       </c>
       <c r="P28" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.41666666666666913</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="1"/>
         <v>-0.60000000000000264</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2425,16 +2524,19 @@
       <c r="N29" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="0"/>
-        <v>3.19999999999997</v>
+      <c r="O29" s="3">
+        <v>0.2</v>
       </c>
       <c r="P29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999254</v>
+      </c>
+      <c r="Q29" s="2">
         <f t="shared" si="1"/>
         <v>2.0000000000000049</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2477,16 +2579,19 @@
       <c r="N30" s="1">
         <v>0.89999999999999902</v>
       </c>
-      <c r="O30" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.18181818181818621</v>
+      <c r="O30" s="3">
+        <v>0.2</v>
       </c>
       <c r="P30" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.16666666666667057</v>
+      </c>
+      <c r="Q30" s="2">
         <f t="shared" si="1"/>
         <v>-0.12500000000000272</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2529,11 +2634,14 @@
       <c r="N31" s="1">
         <v>0.25</v>
       </c>
-      <c r="O31" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000409</v>
+      <c r="O31" s="3">
+        <v>0.2</v>
       </c>
       <c r="P31" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.83333333333336357</v>
+      </c>
+      <c r="Q31" s="2">
         <f t="shared" si="1"/>
         <v>1.5000000000000042</v>
       </c>
